--- a/docs/testCases/secondSprint/TestCase-Contacts-Form-Functionality.xlsx
+++ b/docs/testCases/secondSprint/TestCase-Contacts-Form-Functionality.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projektas\SecondSprint\testCases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projektas\StrangerTeam PayApi Project\docs\testCases\secondSprint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32A4348-8842-47FB-87A2-0992F6726315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52318BD-08DB-4914-B281-A50CA8575D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7575" yWindow="1560" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8745" yWindow="3300" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -99,9 +99,6 @@
     <t>Pass / Fail / Not executed / Suspended</t>
   </si>
   <si>
-    <t>Navigation Functionality</t>
-  </si>
-  <si>
     <t>Test Case</t>
   </si>
   <si>
@@ -145,6 +142,24 @@
   </si>
   <si>
     <t>Mobile</t>
+  </si>
+  <si>
+    <t>This link should redirect me to main page</t>
+  </si>
+  <si>
+    <t>As expected</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Go to the web pagelink: https://stranger-team-pay-api-project.vercel.app/</t>
+  </si>
+  <si>
+    <t>Able to fillout form and get error message if the form entry is empty</t>
+  </si>
+  <si>
+    <t>Contacts form functionality</t>
   </si>
 </sst>
 </file>
@@ -327,72 +342,72 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -678,52 +693,52 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="20"/>
       <c r="C1" s="1">
         <v>1</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="16"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="22"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="23"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="30" t="s">
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="31" t="s">
+      <c r="I2" s="20"/>
+      <c r="J2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="32"/>
+      <c r="K2" s="25"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -739,10 +754,10 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="34"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -767,23 +782,23 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="34"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="30" t="s">
+      <c r="E6" s="27"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="34"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -802,142 +817,144 @@
       <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>1</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="22"/>
       <c r="E9" s="2"/>
       <c r="F9" s="9">
         <v>1</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="16"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="22"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>2</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="2"/>
       <c r="F10" s="9">
         <v>2</v>
       </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="16"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="22"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="22"/>
       <c r="E11" s="2"/>
       <c r="F11" s="9">
         <v>3</v>
       </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="16"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="22"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>4</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="2"/>
       <c r="F12" s="9">
         <v>4</v>
       </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="16"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="22"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>5</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
       <c r="E13" s="2"/>
       <c r="F13" s="9">
         <v>5</v>
       </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="16"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="22"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>5</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
+      <c r="B14" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
       <c r="E14" s="2"/>
       <c r="F14" s="9">
-        <v>5</v>
-      </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="16"/>
+        <v>6</v>
+      </c>
+      <c r="G14" s="33"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="22"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -962,55 +979,63 @@
       <c r="K17" s="11"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="21" t="s">
+      <c r="C18" s="15"/>
+      <c r="D18" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="18" t="s">
+      <c r="E18" s="35"/>
+      <c r="F18" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="18" t="s">
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+    </row>
+    <row r="20" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>1</v>
       </c>
-      <c r="B20" s="12"/>
+      <c r="B20" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="C20" s="17"/>
-      <c r="D20" s="12"/>
+      <c r="D20" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="E20" s="12"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="16"/>
+      <c r="F20" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="21"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="J20" s="21"/>
+      <c r="K20" s="22"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
@@ -1020,12 +1045,12 @@
       <c r="C21" s="13"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="16"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="22"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
@@ -1035,12 +1060,12 @@
       <c r="C22" s="13"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="16"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="22"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
@@ -1050,12 +1075,12 @@
       <c r="C23" s="13"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="16"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="22"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
@@ -1065,12 +1090,12 @@
       <c r="C24" s="13"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="16"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="22"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
@@ -1080,33 +1105,33 @@
       <c r="C25" s="13"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="16"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="22"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="C29" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="19" t="s">
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="15">
+        <v>1</v>
+      </c>
+      <c r="B30" s="16" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="19">
-        <v>1</v>
-      </c>
-      <c r="B30" s="20" t="s">
+      <c r="C30" s="16" t="s">
         <v>28</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1114,10 +1139,10 @@
         <v>2</v>
       </c>
       <c r="B31" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="17" t="s">
         <v>30</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1125,10 +1150,10 @@
         <v>3</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -1136,10 +1161,10 @@
         <v>4</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1147,10 +1172,10 @@
         <v>5</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1158,10 +1183,10 @@
         <v>6</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1169,10 +1194,10 @@
         <v>7</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -1180,10 +1205,10 @@
         <v>8</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1191,24 +1216,57 @@
         <v>9</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:C19"/>
+    <mergeCell ref="D18:E19"/>
+    <mergeCell ref="F18:H19"/>
+    <mergeCell ref="I18:K19"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -1223,49 +1281,16 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:C19"/>
-    <mergeCell ref="D18:E19"/>
-    <mergeCell ref="F18:H19"/>
-    <mergeCell ref="I18:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/testCases/secondSprint/TestCase-Contacts-Form-Functionality.xlsx
+++ b/docs/testCases/secondSprint/TestCase-Contacts-Form-Functionality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projektas\StrangerTeam PayApi Project\docs\testCases\secondSprint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52318BD-08DB-4914-B281-A50CA8575D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C741C4D-A630-4845-BA82-591376273693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8745" yWindow="3300" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="4545" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -99,48 +99,6 @@
     <t>Pass / Fail / Not executed / Suspended</t>
   </si>
   <si>
-    <t>Test Case</t>
-  </si>
-  <si>
-    <t>Input</t>
-  </si>
-  <si>
-    <t>Expected Outcome</t>
-  </si>
-  <si>
-    <t>Valid Username: "john_doe123"</t>
-  </si>
-  <si>
-    <t>Registration is successful.</t>
-  </si>
-  <si>
-    <t>Invalid Username (Short): "abc"</t>
-  </si>
-  <si>
-    <t>Registration fails with an error message.</t>
-  </si>
-  <si>
-    <t>Invalid Username (Long): "very_long_username_with_more_than_20_characters"</t>
-  </si>
-  <si>
-    <t>Valid Email Address: "user@example.com"</t>
-  </si>
-  <si>
-    <t>Invalid Email Address (No "@"): "invalid-email"</t>
-  </si>
-  <si>
-    <t>Invalid Email Format: "user[at]example[dot]com"</t>
-  </si>
-  <si>
-    <t>Valid Password: "secure123"</t>
-  </si>
-  <si>
-    <t>Invalid Password (Short): "short"</t>
-  </si>
-  <si>
-    <t>Invalid Password (No Alphanumeric Characters): "alllowercase"</t>
-  </si>
-  <si>
     <t>Mobile</t>
   </si>
   <si>
@@ -160,6 +118,42 @@
   </si>
   <si>
     <t>Contacts form functionality</t>
+  </si>
+  <si>
+    <t>Enter text into form</t>
+  </si>
+  <si>
+    <t>Should accept text input</t>
+  </si>
+  <si>
+    <t>Click on form entry but do not input any text</t>
+  </si>
+  <si>
+    <t>Error message should appear</t>
+  </si>
+  <si>
+    <t>Tick the check box</t>
+  </si>
+  <si>
+    <t>Check mark with design color background should appear</t>
+  </si>
+  <si>
+    <t>Hover on button "Submit"</t>
+  </si>
+  <si>
+    <t>Button should change color to  dark grey(design)</t>
+  </si>
+  <si>
+    <t>hover on imput form</t>
+  </si>
+  <si>
+    <t>Cursor should change into text cursor</t>
+  </si>
+  <si>
+    <t>hover on button and checkbox</t>
+  </si>
+  <si>
+    <t>Cursor should change into hand cursor</t>
   </si>
 </sst>
 </file>
@@ -342,6 +336,18 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -349,25 +355,34 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -387,27 +402,6 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -693,52 +687,52 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="23"/>
       <c r="C1" s="1">
         <v>1</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="22"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="16"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="20"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="23" t="s">
+      <c r="E2" s="23"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="20"/>
-      <c r="J2" s="24" t="s">
+      <c r="I2" s="23"/>
+      <c r="J2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="25"/>
+      <c r="K2" s="32"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -754,10 +748,10 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="27"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -782,23 +776,25 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="27"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="23" t="s">
+      <c r="E6" s="34"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="29"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -817,143 +813,143 @@
       <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>1</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="22"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="16"/>
       <c r="E9" s="2"/>
       <c r="F9" s="9">
         <v>1</v>
       </c>
-      <c r="G9" s="33"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="22"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="16"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>2</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="22"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16"/>
       <c r="E10" s="2"/>
       <c r="F10" s="9">
         <v>2</v>
       </c>
-      <c r="G10" s="33"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="22"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="16"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="22"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
       <c r="E11" s="2"/>
       <c r="F11" s="9">
         <v>3</v>
       </c>
-      <c r="G11" s="33"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="22"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="16"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>4</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
       <c r="E12" s="2"/>
       <c r="F12" s="9">
         <v>4</v>
       </c>
-      <c r="G12" s="33"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="22"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="16"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>5</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="22"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="16"/>
       <c r="E13" s="2"/>
       <c r="F13" s="9">
         <v>5</v>
       </c>
-      <c r="G13" s="33"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="22"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="16"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>5</v>
       </c>
-      <c r="B14" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="22"/>
+      <c r="B14" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="16"/>
       <c r="E14" s="2"/>
       <c r="F14" s="9">
         <v>6</v>
       </c>
-      <c r="G14" s="33"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="22"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="16"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -979,294 +975,214 @@
       <c r="K17" s="11"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="34" t="s">
+      <c r="C18" s="19"/>
+      <c r="D18" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="35"/>
-      <c r="F18" s="14" t="s">
+      <c r="E18" s="22"/>
+      <c r="F18" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="14" t="s">
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
     </row>
     <row r="20" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>1</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="12" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E20" s="12"/>
-      <c r="F20" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="G20" s="21"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="J20" s="21"/>
-      <c r="K20" s="22"/>
+      <c r="F20" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="15"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" s="15"/>
+      <c r="K20" s="16"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>2</v>
       </c>
-      <c r="B21" s="12"/>
+      <c r="B21" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="C21" s="13"/>
-      <c r="D21" s="12"/>
+      <c r="D21" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="E21" s="12"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="22"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F21" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="15"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" s="15"/>
+      <c r="K21" s="16"/>
+    </row>
+    <row r="22" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>3</v>
       </c>
-      <c r="B22" s="12"/>
+      <c r="B22" s="12" t="s">
+        <v>33</v>
+      </c>
       <c r="C22" s="13"/>
-      <c r="D22" s="12"/>
+      <c r="D22" s="12" t="s">
+        <v>34</v>
+      </c>
       <c r="E22" s="12"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="22"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F22" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="15"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" s="15"/>
+      <c r="K22" s="16"/>
+    </row>
+    <row r="23" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>4</v>
       </c>
-      <c r="B23" s="12"/>
+      <c r="B23" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="C23" s="13"/>
-      <c r="D23" s="12"/>
+      <c r="D23" s="12" t="s">
+        <v>36</v>
+      </c>
       <c r="E23" s="12"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="22"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F23" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="15"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J23" s="15"/>
+      <c r="K23" s="16"/>
+    </row>
+    <row r="24" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>5</v>
       </c>
-      <c r="B24" s="12"/>
+      <c r="B24" s="12" t="s">
+        <v>37</v>
+      </c>
       <c r="C24" s="13"/>
-      <c r="D24" s="12"/>
+      <c r="D24" s="12" t="s">
+        <v>38</v>
+      </c>
       <c r="E24" s="12"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="22"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F24" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="15"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J24" s="15"/>
+      <c r="K24" s="16"/>
+    </row>
+    <row r="25" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>6</v>
       </c>
-      <c r="B25" s="12"/>
+      <c r="B25" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="12"/>
+      <c r="D25" s="12" t="s">
+        <v>40</v>
+      </c>
       <c r="E25" s="12"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="22"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="15" t="s">
+      <c r="F25" s="14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="15">
-        <v>1</v>
-      </c>
-      <c r="B30" s="16" t="s">
+      <c r="G25" s="15"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
-        <v>2</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="9">
-        <v>3</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="9">
-        <v>4</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="9">
-        <v>5</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="9">
+      <c r="J25" s="15"/>
+      <c r="K25" s="16"/>
+    </row>
+    <row r="26" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
         <v>6</v>
       </c>
-      <c r="B35" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="9">
-        <v>7</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="9">
-        <v>8</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="9">
-        <v>9</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
+      <c r="B26" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="12"/>
+      <c r="F26" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="15"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J26" s="15"/>
+      <c r="K26" s="16"/>
+    </row>
+    <row r="31" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="67">
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:C19"/>
-    <mergeCell ref="D18:E19"/>
-    <mergeCell ref="F18:H19"/>
-    <mergeCell ref="I18:K19"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
+  <mergeCells count="61">
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:K26"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -1281,16 +1197,49 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:C19"/>
+    <mergeCell ref="D18:E19"/>
+    <mergeCell ref="F18:H19"/>
+    <mergeCell ref="I18:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/testCases/secondSprint/TestCase-Contacts-Form-Functionality.xlsx
+++ b/docs/testCases/secondSprint/TestCase-Contacts-Form-Functionality.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projektas\StrangerTeam PayApi Project\docs\testCases\secondSprint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C741C4D-A630-4845-BA82-591376273693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC5378D-2C80-4637-B220-FF2BC5DDC423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="4545" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7800" yWindow="3615" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Form validation" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="58">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -154,6 +155,51 @@
   </si>
   <si>
     <t>Cursor should change into hand cursor</t>
+  </si>
+  <si>
+    <t>Test Case</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Expected Outcome</t>
+  </si>
+  <si>
+    <t>Actual Outcome</t>
+  </si>
+  <si>
+    <t>Valid Username: "john_doe123"</t>
+  </si>
+  <si>
+    <t>Registration is successful.</t>
+  </si>
+  <si>
+    <t>Invalid Username (Short): "abc"</t>
+  </si>
+  <si>
+    <t>Registration fails with an error message.</t>
+  </si>
+  <si>
+    <t>Invalid Username (Long): "very_long_username_with_more_than_20_characters"</t>
+  </si>
+  <si>
+    <t>Valid Email Address: "user@example.com"</t>
+  </si>
+  <si>
+    <t>Invalid Email Address (No "@"): "invalid-email"</t>
+  </si>
+  <si>
+    <t>Invalid Email Format: "user[at]example[dot]com"</t>
+  </si>
+  <si>
+    <t>Valid Password: "secure123"</t>
+  </si>
+  <si>
+    <t>Invalid Password (Short): "short"</t>
+  </si>
+  <si>
+    <t>Invalid Password (No Alphanumeric Characters): "alllowercase"</t>
   </si>
 </sst>
 </file>
@@ -163,7 +209,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmmm\ d\,\ yyyy"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +247,13 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -299,7 +352,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -346,7 +399,43 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -361,48 +450,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -687,23 +741,23 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="19"/>
       <c r="C1" s="1">
         <v>1</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="23"/>
+      <c r="E1" s="19"/>
       <c r="F1" s="15" t="s">
         <v>30</v>
       </c>
@@ -714,25 +768,25 @@
       <c r="K1" s="16"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="23"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="23"/>
+      <c r="E2" s="19"/>
       <c r="F2" s="15"/>
       <c r="G2" s="16"/>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="31" t="s">
+      <c r="I2" s="19"/>
+      <c r="J2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="32"/>
+      <c r="K2" s="22"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -748,10 +802,10 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="34"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -776,25 +830,25 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="34"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="30" t="s">
+      <c r="E6" s="24"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="34"/>
-      <c r="J6" s="29" t="s">
+      <c r="I6" s="24"/>
+      <c r="J6" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="29"/>
+      <c r="K6" s="17"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -813,22 +867,22 @@
       <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
@@ -975,40 +1029,40 @@
       <c r="K17" s="11"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="21" t="s">
+      <c r="C18" s="31"/>
+      <c r="D18" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="18" t="s">
+      <c r="E18" s="34"/>
+      <c r="F18" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="18" t="s">
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
     </row>
     <row r="20" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
@@ -1017,7 +1071,7 @@
       <c r="B20" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="17"/>
+      <c r="C20" s="36"/>
       <c r="D20" s="12" t="s">
         <v>25</v>
       </c>
@@ -1179,11 +1233,43 @@
     <row r="38" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:C19"/>
+    <mergeCell ref="D18:E19"/>
+    <mergeCell ref="F18:H19"/>
+    <mergeCell ref="I18:K19"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:K1"/>
@@ -1192,11 +1278,11 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="J6:K6"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="G8:K8"/>
     <mergeCell ref="B9:D9"/>
@@ -1208,39 +1294,163 @@
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="G12:K12"/>
     <mergeCell ref="B13:D13"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:C19"/>
-    <mergeCell ref="D18:E19"/>
-    <mergeCell ref="F18:H19"/>
-    <mergeCell ref="I18:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:K25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DCD9FC-0F4B-4DF5-A2EE-3428859B93CA}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="37">
+        <v>1</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="37">
+        <v>2</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="37">
+        <v>3</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="37">
+        <v>4</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="37">
+        <v>5</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="37">
+        <v>6</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="37">
+        <v>7</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="37">
+        <v>8</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="37">
+        <v>9</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/testCases/secondSprint/TestCase-Contacts-Form-Functionality.xlsx
+++ b/docs/testCases/secondSprint/TestCase-Contacts-Form-Functionality.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projektas\StrangerTeam PayApi Project\docs\testCases\secondSprint\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projektas\StrangerTeam_PayApi_Project\docs\testCases\secondSprint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC5378D-2C80-4637-B220-FF2BC5DDC423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFA051C-05FB-42EE-B646-E2C36A8046E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7800" yWindow="3615" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6975" yWindow="3180" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="60">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -200,6 +200,12 @@
   </si>
   <si>
     <t>Invalid Password (No Alphanumeric Characters): "alllowercase"</t>
+  </si>
+  <si>
+    <t>Click on the input field of the form.</t>
+  </si>
+  <si>
+    <t>Clicking on the input field should make the underline darker.</t>
   </si>
 </sst>
 </file>
@@ -352,7 +358,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -385,6 +391,7 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -402,6 +409,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
@@ -427,15 +443,6 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -456,7 +463,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -741,52 +756,52 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
+      <c r="B1" s="23"/>
       <c r="C1" s="1">
         <v>1</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="15" t="s">
+      <c r="E1" s="23"/>
+      <c r="F1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="17"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="20" t="s">
+      <c r="E2" s="23"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="21" t="s">
+      <c r="I2" s="23"/>
+      <c r="J2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="22"/>
+      <c r="K2" s="26"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -802,10 +817,10 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="24"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -830,25 +845,25 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="24"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="20" t="s">
+      <c r="E6" s="28"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="24"/>
-      <c r="J6" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" s="17"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="18"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -867,136 +882,136 @@
       <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>1</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17"/>
       <c r="E9" s="2"/>
       <c r="F9" s="9">
         <v>1</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="16"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="17"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>2</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
       <c r="E10" s="2"/>
       <c r="F10" s="9">
         <v>2</v>
       </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="16"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="17"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
       <c r="E11" s="2"/>
       <c r="F11" s="9">
         <v>3</v>
       </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="16"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="17"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>4</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
       <c r="E12" s="2"/>
       <c r="F12" s="9">
         <v>4</v>
       </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="16"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="17"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>5</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
       <c r="E13" s="2"/>
       <c r="F13" s="9">
         <v>5</v>
       </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="16"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="17"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>5</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17"/>
       <c r="E14" s="2"/>
       <c r="F14" s="9">
         <v>6</v>
       </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="16"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="17"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
@@ -1029,201 +1044,224 @@
       <c r="K17" s="11"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="33" t="s">
+      <c r="C18" s="32"/>
+      <c r="D18" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="34"/>
-      <c r="F18" s="30" t="s">
+      <c r="E18" s="35"/>
+      <c r="F18" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="30" t="s">
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
     </row>
     <row r="20" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>1</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="36"/>
-      <c r="D20" s="12" t="s">
+      <c r="C20" s="37"/>
+      <c r="D20" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="J20" s="15"/>
-      <c r="K20" s="16"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="16"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" s="16"/>
+      <c r="K20" s="17"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>2</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="12" t="s">
+      <c r="C21" s="14"/>
+      <c r="D21" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="J21" s="15"/>
-      <c r="K21" s="16"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="16"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" s="16"/>
+      <c r="K21" s="17"/>
     </row>
     <row r="22" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>3</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="12" t="s">
+      <c r="C22" s="14"/>
+      <c r="D22" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="15"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="J22" s="15"/>
-      <c r="K22" s="16"/>
-    </row>
-    <row r="23" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E22" s="13"/>
+      <c r="F22" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="16"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" s="16"/>
+      <c r="K22" s="17"/>
+    </row>
+    <row r="23" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>4</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="12" t="s">
+      <c r="C23" s="14"/>
+      <c r="D23" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="15"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="J23" s="15"/>
-      <c r="K23" s="16"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="16"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J23" s="16"/>
+      <c r="K23" s="17"/>
     </row>
     <row r="24" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>5</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="12" t="s">
+      <c r="C24" s="14"/>
+      <c r="D24" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="15"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="J24" s="15"/>
-      <c r="K24" s="16"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="16"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J24" s="16"/>
+      <c r="K24" s="17"/>
     </row>
     <row r="25" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>6</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="12" t="s">
+      <c r="C25" s="14"/>
+      <c r="D25" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25" s="15"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="J25" s="15"/>
-      <c r="K25" s="16"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="16"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25" s="16"/>
+      <c r="K25" s="17"/>
     </row>
     <row r="26" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>6</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="12" t="s">
+      <c r="C26" s="14"/>
+      <c r="D26" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" s="15"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="J26" s="15"/>
-      <c r="K26" s="16"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="16"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J26" s="16"/>
+      <c r="K26" s="17"/>
+    </row>
+    <row r="27" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="40">
+        <v>7</v>
+      </c>
+      <c r="B27" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="38"/>
+      <c r="D27" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="38"/>
+      <c r="F27" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="16"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J27" s="16"/>
+      <c r="K27" s="17"/>
     </row>
     <row r="31" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1232,7 +1270,11 @@
     <row r="37" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="38" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="61">
+  <mergeCells count="65">
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:K27"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="F24:H24"/>
@@ -1304,151 +1346,187 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="74.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
     <col min="5" max="5" width="35.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="12" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="37">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
+      <c r="D2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="37">
+      <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
+      <c r="D3" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="37">
+      <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
+      <c r="D4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="37">
+      <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
+      <c r="D5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="37">
+      <c r="A6" s="12">
         <v>5</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
+      <c r="D6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="37">
+      <c r="A7" s="12">
         <v>6</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
+      <c r="D7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="37">
+      <c r="A8" s="12">
         <v>7</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
+      <c r="D8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="37">
+      <c r="A9" s="12">
         <v>8</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
+      <c r="D9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="37">
+      <c r="A10" s="12">
         <v>9</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
+      <c r="D10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/testCases/secondSprint/TestCase-Contacts-Form-Functionality.xlsx
+++ b/docs/testCases/secondSprint/TestCase-Contacts-Form-Functionality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projektas\StrangerTeam_PayApi_Project\docs\testCases\secondSprint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFA051C-05FB-42EE-B646-E2C36A8046E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD709D04-2FA8-41F4-AE6C-B549D0BFF0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6975" yWindow="3180" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -358,7 +358,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -392,57 +392,27 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -457,20 +427,47 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -756,23 +753,23 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="B20" sqref="B20:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="1">
         <v>1</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="23"/>
+      <c r="E1" s="26"/>
       <c r="F1" s="16" t="s">
         <v>30</v>
       </c>
@@ -783,25 +780,25 @@
       <c r="K1" s="17"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="23"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="23"/>
+      <c r="E2" s="26"/>
       <c r="F2" s="16"/>
       <c r="G2" s="17"/>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="25" t="s">
+      <c r="I2" s="26"/>
+      <c r="J2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="26"/>
+      <c r="K2" s="35"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -817,10 +814,10 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -845,25 +842,25 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="28"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="24" t="s">
+      <c r="E6" s="29"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="28"/>
-      <c r="J6" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" s="18"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="36"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -882,22 +879,22 @@
       <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
@@ -1044,53 +1041,53 @@
       <c r="K17" s="11"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="34" t="s">
+      <c r="C18" s="22"/>
+      <c r="D18" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="35"/>
-      <c r="F18" s="31" t="s">
+      <c r="E18" s="25"/>
+      <c r="F18" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="31" t="s">
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
     </row>
     <row r="20" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>1</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="13" t="s">
+      <c r="C20" s="20"/>
+      <c r="D20" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="13"/>
+      <c r="E20" s="18"/>
       <c r="F20" s="15" t="s">
         <v>26</v>
       </c>
@@ -1106,14 +1103,14 @@
       <c r="A21" s="9">
         <v>2</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="13" t="s">
+      <c r="C21" s="19"/>
+      <c r="D21" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="13"/>
+      <c r="E21" s="18"/>
       <c r="F21" s="15" t="s">
         <v>26</v>
       </c>
@@ -1129,14 +1126,14 @@
       <c r="A22" s="9">
         <v>3</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="13" t="s">
+      <c r="C22" s="19"/>
+      <c r="D22" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="13"/>
+      <c r="E22" s="18"/>
       <c r="F22" s="15" t="s">
         <v>26</v>
       </c>
@@ -1152,14 +1149,14 @@
       <c r="A23" s="9">
         <v>4</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="13" t="s">
+      <c r="C23" s="19"/>
+      <c r="D23" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="13"/>
+      <c r="E23" s="18"/>
       <c r="F23" s="15" t="s">
         <v>26</v>
       </c>
@@ -1175,14 +1172,14 @@
       <c r="A24" s="9">
         <v>5</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="13" t="s">
+      <c r="C24" s="19"/>
+      <c r="D24" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E24" s="13"/>
+      <c r="E24" s="18"/>
       <c r="F24" s="15" t="s">
         <v>26</v>
       </c>
@@ -1198,14 +1195,14 @@
       <c r="A25" s="9">
         <v>6</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="13" t="s">
+      <c r="C25" s="19"/>
+      <c r="D25" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="13"/>
+      <c r="E25" s="18"/>
       <c r="F25" s="15" t="s">
         <v>26</v>
       </c>
@@ -1221,14 +1218,14 @@
       <c r="A26" s="9">
         <v>6</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="13" t="s">
+      <c r="C26" s="19"/>
+      <c r="D26" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="13"/>
+      <c r="E26" s="18"/>
       <c r="F26" s="15" t="s">
         <v>26</v>
       </c>
@@ -1241,17 +1238,17 @@
       <c r="K26" s="17"/>
     </row>
     <row r="27" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="40">
+      <c r="A27" s="9">
         <v>7</v>
       </c>
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="38"/>
-      <c r="D27" s="39" t="s">
+      <c r="C27" s="14"/>
+      <c r="D27" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="E27" s="38"/>
+      <c r="E27" s="14"/>
       <c r="F27" s="15" t="s">
         <v>26</v>
       </c>
@@ -1271,6 +1268,55 @@
     <row r="38" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="65">
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:C19"/>
+    <mergeCell ref="D18:E19"/>
+    <mergeCell ref="F18:H19"/>
+    <mergeCell ref="I18:K19"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="F27:H27"/>
@@ -1283,59 +1329,10 @@
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="F25:H25"/>
     <mergeCell ref="I25:K25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:C19"/>
-    <mergeCell ref="D18:E19"/>
-    <mergeCell ref="F18:H19"/>
-    <mergeCell ref="I18:K19"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="F26:H26"/>
     <mergeCell ref="I26:K26"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="B13:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
